--- a/project/excel/dcat_ms_ap.xlsx
+++ b/project/excel/dcat_ms_ap.xlsx
@@ -7,9 +7,73 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Person" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PersonCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Activity" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Agent" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AgenticEntity" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="AnalysisDataset" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AnalysisSourceData" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Any" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Attribution" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Catalogue" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="CatalogueRecord" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Checksum" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ChecksumAlgorithm" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Concept" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="ConceptScheme" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="DataAnalysis" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="DataGeneratingActivity" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="DataService" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Dataset" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="DatasetSeries" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="DefinedTerm" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Device" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Distribution" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Document" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Entity" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="EvaluatedActivity" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="EvaluatedEntity" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Frequency" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Geometry" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Identifier" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Kind" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="LegalResource" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="LicenseDocument" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="LinguisticSystem" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Location" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="MediaType" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="MediaTypeOrExtent" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="PeriodOfTime" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Plan" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="Policy" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="ProvenanceStatement" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="QualitativeAttribute" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="QuantitativeAttribute" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="Relationship" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Resource" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="RightsStatement" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Role" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Software" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Standard" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="SupportiveEntity" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="Surrounding" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="TimeInstant" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="NMRAnalysisDataset" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="NMRSpectralAnalysis" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="NMRSpectroscopy" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="ChemicalReaction" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="ChemicalSubstance" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="ChemicalEntity" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="ChemicalSample" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="NMRSpectrum" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="Laboratory" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="InChIKey" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="InChi" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="IUPACChemicalFormula" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="SMILES" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet name="MSAnalysisDataset" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet name="MSAnalysis" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet name="MSSpectroscopy" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet name="MSSpectrum" sheetId="67" state="visible" r:id="rId67"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,6 +479,793 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>had_input_entity</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>had_output_entity</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>had_input_activity</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>carried_out_by</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>algorithm</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>checksum_value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>preferred_label</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>evaluated_entity</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>evaluated_activity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>realized_plan</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>occurred_in</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>had_input_entity</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>had_output_entity</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>had_input_activity</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>carried_out_by</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>evaluated_entity</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>evaluated_activity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>realized_plan</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>occurred_in</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>had_input_entity</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>had_output_entity</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>had_input_activity</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>carried_out_by</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>access_rights</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>applicable_legislation</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>conforms_to</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>contact_point</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>documentation</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>endpoint_URL</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>endpoint_description</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>landing_page</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>licence</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>serves_dataset</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>theme</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AM1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>access_rights</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>applicable_legislation</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>conforms_to</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>contact_point</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>creator</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>dataset_distribution</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>documentation</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>geographical_coverage</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>has_version</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>identifier</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>in_series</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>is_referenced_by</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>landing_page</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>modification_date</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>provenance</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>qualified_attribution</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>qualified_relation</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>related_resource</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>release_date</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>spatial_resolution</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>temporal_coverage</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>temporal_resolution</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>theme</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>version_notes</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>was_generated_by</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>is_about_entity</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>is_about_activity</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>applicable_legislation</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>contact_point</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>geographical_coverage</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>modification_date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>release_date</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>temporal_coverage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -431,21 +1282,1160 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>from_CV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="C1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>access_URL</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>access_service</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>applicable_legislation</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>availability</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>byte_size</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>checksum</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>compression_format</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>documentation</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>download_URL</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>has_policy</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>licence</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>linked_schemas</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>media_type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>modification_date</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>packaging_format</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>release_date</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>spatial_resolution</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>temporal_resolution</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>had_input_entity</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>had_output_entity</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>had_input_activity</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>carried_out_by</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>was_generated_by</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>notation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>bbox</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>centroid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>geometry</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>beginning</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>end_date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AM1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>access_rights</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>applicable_legislation</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>conforms_to</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>contact_point</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>creator</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>dataset_distribution</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>documentation</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>geographical_coverage</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>has_version</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>identifier</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>in_series</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>is_referenced_by</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>landing_page</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>modification_date</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>provenance</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>qualified_attribution</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>qualified_relation</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>related_resource</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>release_date</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>spatial_resolution</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>temporal_coverage</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>temporal_resolution</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>theme</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>version_notes</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>was_generated_by</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>is_about_entity</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>is_about_activity</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -462,51 +2452,345 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>primary_email</t>
+          <t>title</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>birth_date</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>age_in_years</t>
+          <t>value</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>vital_status</t>
+          <t>has_quantity_type</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>had_role</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>has_quantitative_attribute</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>description</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>was_generated_by</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -519,11 +2803,1723 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>entries</t>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AM1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>access_rights</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>applicable_legislation</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>conforms_to</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>contact_point</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>creator</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>dataset_distribution</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>documentation</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>geographical_coverage</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>has_version</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>identifier</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>in_series</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>is_referenced_by</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>landing_page</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>modification_date</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>provenance</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>qualified_attribution</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>qualified_relation</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>related_resource</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>release_date</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>spatial_resolution</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>temporal_coverage</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>temporal_resolution</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>theme</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>version_notes</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>was_generated_by</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>is_about_entity</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>is_about_activity</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>evaluated_entity</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>evaluated_activity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>realized_plan</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>occurred_in</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>had_input_entity</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>had_output_entity</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>had_input_activity</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>carried_out_by</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>evaluated_entity</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>evaluated_activity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>realized_plan</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>occurred_in</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>had_input_entity</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>had_output_entity</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>had_input_activity</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>carried_out_by</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>had_input_entity</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>had_output_entity</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>had_input_activity</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>carried_out_by</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>composed_of</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>was_generated_by</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>inchi</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>inchikey</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>smiles</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>iupac_formula</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>composed_of</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>was_generated_by</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>was_generated_by</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AM1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>access_rights</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>applicable_legislation</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>conforms_to</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>contact_point</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>creator</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>dataset_distribution</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>documentation</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>geographical_coverage</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>has_version</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>identifier</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>in_series</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>is_referenced_by</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>landing_page</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>modification_date</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>provenance</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>qualified_attribution</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>qualified_relation</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>related_resource</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>release_date</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>spatial_resolution</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>temporal_coverage</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>temporal_resolution</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>theme</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>version_notes</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>was_generated_by</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>is_about_entity</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>is_about_activity</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>evaluated_entity</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>evaluated_activity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>realized_plan</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>occurred_in</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>had_input_entity</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>had_output_entity</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>had_input_activity</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>carried_out_by</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>evaluated_entity</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>evaluated_activity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>realized_plan</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>occurred_in</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>had_input_entity</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>had_output_entity</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>had_input_activity</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>carried_out_by</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>was_generated_by</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>applicable_legislation</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>catalogue</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>creator</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>geographical_coverage</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>has_dataset</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>homepage</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>licence</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>modification_date</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>record</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>release_date</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>temporal_coverage</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>themes</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>application_profile</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>change_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>listing_date</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>modification_date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>primary_topic</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>source_metadata</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>title</t>
         </is>
       </c>
     </row>

--- a/project/excel/dcat_ms_ap.xlsx
+++ b/project/excel/dcat_ms_ap.xlsx
@@ -71,9 +71,8 @@
     <sheet name="IUPACChemicalFormula" sheetId="62" state="visible" r:id="rId62"/>
     <sheet name="SMILES" sheetId="63" state="visible" r:id="rId63"/>
     <sheet name="MSAnalysisDataset" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet name="MSAnalysis" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet name="MSSpectrum" sheetId="65" state="visible" r:id="rId65"/>
     <sheet name="MSSpectroscopy" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet name="MSSpectrum" sheetId="67" state="visible" r:id="rId67"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4051,6 +4050,77 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>was_generated_by</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>other_identifier</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>has_qualitative_attribute</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_quantitative_attribute</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>rdf_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4151,377 +4221,200 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>evaluated_entity</t>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>applicable_legislation</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>evaluated_activity</t>
+          <t>catalogue</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>realized_plan</t>
+          <t>creator</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>occurred_in</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>geographical_coverage</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>has_dataset</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_part</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>homepage</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>licence</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>modification_date</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>record</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>release_date</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>temporal_coverage</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>themes</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>application_profile</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>change_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>listing_date</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>modification_date</t>
+        </is>
+      </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>primary_topic</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>other_identifier</t>
+          <t>source_metadata</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>has_part</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>had_input_entity</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>had_output_entity</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>had_input_activity</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>carried_out_by</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>has_qualitative_attribute</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>has_quantitative_attribute</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>rdf_type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>was_generated_by</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>other_identifier</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>has_qualitative_attribute</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>has_quantitative_attribute</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>has_part</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>rdf_type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>applicable_legislation</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>catalogue</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>creator</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>geographical_coverage</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>has_dataset</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>has_part</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>homepage</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>licence</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>modification_date</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>publisher</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>record</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>release_date</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>rights</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>temporal_coverage</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>themes</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>application_profile</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>change_type</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>listing_date</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>modification_date</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>primary_topic</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>source_metadata</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
